--- a/biology/Biologie cellulaire et moléculaire/Hème_oxygénase_1/Hème_oxygénase_1.xlsx
+++ b/biology/Biologie cellulaire et moléculaire/Hème_oxygénase_1/Hème_oxygénase_1.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>H%C3%A8me_oxyg%C3%A9nase_1</t>
+          <t>Hème_oxygénase_1</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">L'hème oxygénase 1 est l'une des trois isoformes de l'hème oxygénase. Son gène est le HMOX1 situé sur le chromosome 22 humain.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>H%C3%A8me_oxyg%C3%A9nase_1</t>
+          <t>Hème_oxygénase_1</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,11 +523,13 @@
           <t>Rôles</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Elle permet le catabolisme de l'hème en biliverdine, monoxyde de carbone et ion fer[5].
-Elle a un effet protecteur sur divers organes contre différents types de stress : foie[6], rein[7], cœur[8], rétine[9] ou cerveau[10]. Il inhibe l'activité pro-inflammatoire des monocytes, jouant ainsi sur la fonction endothéliale des patients hypertendus[11].
-un déficit congénital en hème oxygénase 1 provoque un syndrome comportant une hémolyse, une absence de rate, une insuffisance rénale[12]. Il peut être responsable d'une fausse-couche[13]. 
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Elle permet le catabolisme de l'hème en biliverdine, monoxyde de carbone et ion fer.
+Elle a un effet protecteur sur divers organes contre différents types de stress : foie, rein, cœur, rétine ou cerveau. Il inhibe l'activité pro-inflammatoire des monocytes, jouant ainsi sur la fonction endothéliale des patients hypertendus.
+un déficit congénital en hème oxygénase 1 provoque un syndrome comportant une hémolyse, une absence de rate, une insuffisance rénale. Il peut être responsable d'une fausse-couche. 
 </t>
         </is>
       </c>
